--- a/biology/Zoologie/Ctenodactylus_gundi/Ctenodactylus_gundi.xlsx
+++ b/biology/Zoologie/Ctenodactylus_gundi/Ctenodactylus_gundi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Goundi de l'Atlas (Ctenodactylus gundi) est une espèce de petits rongeurs de la famille des Ctenodactylidae appelée aussi Goundi d'Afrique du Nord ou Goundi du Nord[1],[2],[3],[4]. On le trouve en Afrique du Nord où il occupe les milieux rocheux bordant le désert du Sahara au nord, de la Libye au Maroc, en passant par la Tunisie et l'Algérie.
-L'espèce a été décrite pour la première fois en 1776, avec pour nom scientifique Mus gundi, par Göran Rothman (1739-1778), un naturaliste suédois[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Goundi de l'Atlas (Ctenodactylus gundi) est une espèce de petits rongeurs de la famille des Ctenodactylidae appelée aussi Goundi d'Afrique du Nord ou Goundi du Nord. On le trouve en Afrique du Nord où il occupe les milieux rocheux bordant le désert du Sahara au nord, de la Libye au Maroc, en passant par la Tunisie et l'Algérie.
+L'espèce a été décrite pour la première fois en 1776, avec pour nom scientifique Mus gundi, par Göran Rothman (1739-1778), un naturaliste suédois,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est diurne et herbivore.
 Gestation : 73 jours (1 à 3 jeunes par portée).
@@ -544,9 +558,11 @@
           <t>Interactions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parasite Toxoplasma gondii responsable de la toxoplasmose a été décrit pour la première fois en 1908-1909[7],[8] à l'Institut Pasteur de Tunis par deux médecins français, Charles Nicolle et Louis Herbert Manceaux, après qu'une épidémie a touché des Ctenodactylus gundi. Ils isolèrent un protozoaire de forme arquée qu'ils nommèrent Toxoplasma gondii, toxoplasma venant des mots grecs toxon (arc) et plasma (forme). Par la suite, ce parasite sera isolé chez de nombreuses autres espèces animales[9],[10] et dans l'espèce humaine.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parasite Toxoplasma gondii responsable de la toxoplasmose a été décrit pour la première fois en 1908-1909, à l'Institut Pasteur de Tunis par deux médecins français, Charles Nicolle et Louis Herbert Manceaux, après qu'une épidémie a touché des Ctenodactylus gundi. Ils isolèrent un protozoaire de forme arquée qu'ils nommèrent Toxoplasma gondii, toxoplasma venant des mots grecs toxon (arc) et plasma (forme). Par la suite, ce parasite sera isolé chez de nombreuses autres espèces animales, et dans l'espèce humaine.
 </t>
         </is>
       </c>
